--- a/other/xinhu/yotubeVideos.xlsx
+++ b/other/xinhu/yotubeVideos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A4E9DE-4A14-4F7D-A1B6-A08754462D67}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D38ED6-EDBA-4D3E-B640-D3329ECEF76B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -607,8 +607,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/other/xinhu/yotubeVideos.xlsx
+++ b/other/xinhu/yotubeVideos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D38ED6-EDBA-4D3E-B640-D3329ECEF76B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78C559D-F65E-439B-932E-2C188AFEF813}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="88">
   <si>
     <t>title</t>
   </si>
@@ -248,6 +248,42 @@
   </si>
   <si>
     <t>KPaPATF2q-4</t>
+  </si>
+  <si>
+    <t>BJ_saYk8J0A</t>
+  </si>
+  <si>
+    <t>1070806新湖國小暑期攀岩活動</t>
+  </si>
+  <si>
+    <t>1070830新湖國小新生迎新活動</t>
+  </si>
+  <si>
+    <t>hKzwLvQ8GS4</t>
+  </si>
+  <si>
+    <t>TaXQihY23SQ</t>
+  </si>
+  <si>
+    <t>20180607小田園工作日誌</t>
+  </si>
+  <si>
+    <t>20180531小田員工日誌</t>
+  </si>
+  <si>
+    <t>cxFvnJazzZQ</t>
+  </si>
+  <si>
+    <t>8Tb5P178KGY</t>
+  </si>
+  <si>
+    <t>201805067圖書館工作日誌</t>
+  </si>
+  <si>
+    <t>X09MspQI8JQ</t>
+  </si>
+  <si>
+    <t>20180831警察杯杯在新湖</t>
   </si>
 </sst>
 </file>
@@ -327,8 +363,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B68AFC7B-6266-4D14-8E60-C11E06AA594C}" name="Table1" displayName="Table1" ref="A1:F33" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F33" xr:uid="{2166C70C-1411-4E16-A820-5D604ED0A907}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B68AFC7B-6266-4D14-8E60-C11E06AA594C}" name="Table1" displayName="Table1" ref="A1:F39" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F39" xr:uid="{2166C70C-1411-4E16-A820-5D604ED0A907}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{E7C8E38C-0C4D-4B0E-B31D-F84273132EE5}" name="title" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{073D97DF-3E36-42E2-89AE-63240BDD5AAE}" name="ID" dataDxfId="4"/>
@@ -605,10 +641,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,6 +1316,126 @@
         <v>19</v>
       </c>
     </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="2">
+        <v>8</v>
+      </c>
+      <c r="D34" s="2">
+        <v>16</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="2">
+        <v>8</v>
+      </c>
+      <c r="D35" s="2">
+        <v>30</v>
+      </c>
+      <c r="E35" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="2">
+        <v>8</v>
+      </c>
+      <c r="D36" s="2">
+        <v>6</v>
+      </c>
+      <c r="E36" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="2">
+        <v>5</v>
+      </c>
+      <c r="D37" s="2">
+        <v>31</v>
+      </c>
+      <c r="E37" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="2">
+        <v>5</v>
+      </c>
+      <c r="D38" s="2">
+        <v>7</v>
+      </c>
+      <c r="E38" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="2">
+        <v>31</v>
+      </c>
+      <c r="D39" s="2">
+        <v>8</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/other/xinhu/yotubeVideos.xlsx
+++ b/other/xinhu/yotubeVideos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78C559D-F65E-439B-932E-2C188AFEF813}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36098F8-57B0-4120-B230-376FA869C57E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -268,9 +268,6 @@
     <t>20180607小田園工作日誌</t>
   </si>
   <si>
-    <t>20180531小田員工日誌</t>
-  </si>
-  <si>
     <t>cxFvnJazzZQ</t>
   </si>
   <si>
@@ -284,6 +281,9 @@
   </si>
   <si>
     <t>20180831警察杯杯在新湖</t>
+  </si>
+  <si>
+    <t>20180531小田園工日誌</t>
   </si>
 </sst>
 </file>
@@ -644,7 +644,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,10 +1378,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="C37" s="2">
         <v>5</v>
@@ -1398,10 +1398,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C38" s="2">
         <v>5</v>
@@ -1418,10 +1418,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C39" s="2">
         <v>31</v>

--- a/other/xinhu/yotubeVideos.xlsx
+++ b/other/xinhu/yotubeVideos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36098F8-57B0-4120-B230-376FA869C57E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227C5B74-1D4B-474B-A11B-415D200E3D1D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="96">
   <si>
     <t>title</t>
   </si>
@@ -268,12 +268,6 @@
     <t>20180607小田園工作日誌</t>
   </si>
   <si>
-    <t>cxFvnJazzZQ</t>
-  </si>
-  <si>
-    <t>8Tb5P178KGY</t>
-  </si>
-  <si>
     <t>201805067圖書館工作日誌</t>
   </si>
   <si>
@@ -283,7 +277,37 @@
     <t>20180831警察杯杯在新湖</t>
   </si>
   <si>
-    <t>20180531小田園工日誌</t>
+    <t>n4pJlBRn0xU</t>
+  </si>
+  <si>
+    <t>20180531小田園工作日誌</t>
+  </si>
+  <si>
+    <t>1IV6UTDOG2U</t>
+  </si>
+  <si>
+    <t>20140619海洋音樂祭創作花絮</t>
+  </si>
+  <si>
+    <t>_a47DBjOEHg</t>
+  </si>
+  <si>
+    <t>20170621藝童向前行 幸福藍晒圖</t>
+  </si>
+  <si>
+    <t>8dJcnzT39Uc</t>
+  </si>
+  <si>
+    <t>20160620貓熊快閃在新湖</t>
+  </si>
+  <si>
+    <t>GSJHd_5QaNQ</t>
+  </si>
+  <si>
+    <t>20160414幸福雪花祭</t>
+  </si>
+  <si>
+    <t>9eajoShw9k0</t>
   </si>
 </sst>
 </file>
@@ -363,8 +387,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B68AFC7B-6266-4D14-8E60-C11E06AA594C}" name="Table1" displayName="Table1" ref="A1:F39" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F39" xr:uid="{2166C70C-1411-4E16-A820-5D604ED0A907}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B68AFC7B-6266-4D14-8E60-C11E06AA594C}" name="Table1" displayName="Table1" ref="A1:F43" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F43" xr:uid="{2166C70C-1411-4E16-A820-5D604ED0A907}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{E7C8E38C-0C4D-4B0E-B31D-F84273132EE5}" name="title" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{073D97DF-3E36-42E2-89AE-63240BDD5AAE}" name="ID" dataDxfId="4"/>
@@ -641,10 +665,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,10 +1402,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C37" s="2">
         <v>5</v>
@@ -1398,10 +1422,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C38" s="2">
         <v>5</v>
@@ -1418,10 +1442,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2">
         <v>31</v>
@@ -1434,6 +1458,86 @@
       </c>
       <c r="F39" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="2">
+        <v>6</v>
+      </c>
+      <c r="D40" s="2">
+        <v>19</v>
+      </c>
+      <c r="E40" s="2">
+        <v>2014</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="2">
+        <v>6</v>
+      </c>
+      <c r="D41" s="2">
+        <v>21</v>
+      </c>
+      <c r="E41" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="2">
+        <v>6</v>
+      </c>
+      <c r="D42" s="2">
+        <v>20</v>
+      </c>
+      <c r="E42" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="2">
+        <v>4</v>
+      </c>
+      <c r="D43" s="2">
+        <v>14</v>
+      </c>
+      <c r="E43" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/other/xinhu/yotubeVideos.xlsx
+++ b/other/xinhu/yotubeVideos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227C5B74-1D4B-474B-A11B-415D200E3D1D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12A10FA-819A-46B2-9DE2-2FA959199282}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="98">
   <si>
     <t>title</t>
   </si>
@@ -308,6 +308,12 @@
   </si>
   <si>
     <t>9eajoShw9k0</t>
+  </si>
+  <si>
+    <t>20160618回收再利用 快閃黑白紙熊貓變彩色 中視新聞</t>
+  </si>
+  <si>
+    <t>UHeLJyqj0iU</t>
   </si>
 </sst>
 </file>
@@ -387,8 +393,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B68AFC7B-6266-4D14-8E60-C11E06AA594C}" name="Table1" displayName="Table1" ref="A1:F43" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F43" xr:uid="{2166C70C-1411-4E16-A820-5D604ED0A907}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B68AFC7B-6266-4D14-8E60-C11E06AA594C}" name="Table1" displayName="Table1" ref="A1:F44" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F44" xr:uid="{2166C70C-1411-4E16-A820-5D604ED0A907}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{E7C8E38C-0C4D-4B0E-B31D-F84273132EE5}" name="title" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{073D97DF-3E36-42E2-89AE-63240BDD5AAE}" name="ID" dataDxfId="4"/>
@@ -665,10 +671,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1540,6 +1546,26 @@
         <v>43</v>
       </c>
     </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="2">
+        <v>6</v>
+      </c>
+      <c r="D44" s="2">
+        <v>18</v>
+      </c>
+      <c r="E44" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/other/xinhu/yotubeVideos.xlsx
+++ b/other/xinhu/yotubeVideos.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12A10FA-819A-46B2-9DE2-2FA959199282}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE217BB-657D-4951-9188-DF7B0005BFF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="100">
   <si>
     <t>title</t>
   </si>
@@ -314,6 +314,12 @@
   </si>
   <si>
     <t>UHeLJyqj0iU</t>
+  </si>
+  <si>
+    <t>AtKE8IycOzo</t>
+  </si>
+  <si>
+    <t>新湖李弘仁老師專題報導杏壇芬芳奬得主～身心奉獻為教育</t>
   </si>
 </sst>
 </file>
@@ -393,8 +399,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B68AFC7B-6266-4D14-8E60-C11E06AA594C}" name="Table1" displayName="Table1" ref="A1:F44" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F44" xr:uid="{2166C70C-1411-4E16-A820-5D604ED0A907}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B68AFC7B-6266-4D14-8E60-C11E06AA594C}" name="Table1" displayName="Table1" ref="A1:F45" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F45" xr:uid="{2166C70C-1411-4E16-A820-5D604ED0A907}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{E7C8E38C-0C4D-4B0E-B31D-F84273132EE5}" name="title" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{073D97DF-3E36-42E2-89AE-63240BDD5AAE}" name="ID" dataDxfId="4"/>
@@ -671,10 +677,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F45" sqref="A1:F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,7 +1149,7 @@
         <v>2018</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1283,7 +1289,7 @@
         <v>2018</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1303,7 +1309,7 @@
         <v>2018</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1394,16 +1400,16 @@
         <v>80</v>
       </c>
       <c r="C36" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D36" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E36" s="2">
         <v>2018</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1423,7 +1429,7 @@
         <v>2018</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1454,16 +1460,16 @@
         <v>83</v>
       </c>
       <c r="C39" s="2">
+        <v>8</v>
+      </c>
+      <c r="D39" s="2">
         <v>31</v>
       </c>
-      <c r="D39" s="2">
-        <v>8</v>
-      </c>
       <c r="E39" s="2">
         <v>2018</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1564,6 +1570,26 @@
       </c>
       <c r="F44" s="1" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="2">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2">
+        <v>12</v>
+      </c>
+      <c r="E45" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/other/xinhu/yotubeVideos.xlsx
+++ b/other/xinhu/yotubeVideos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE217BB-657D-4951-9188-DF7B0005BFF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAC0839-2BE6-40E1-96AB-37D5CF5BD533}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -319,7 +319,7 @@
     <t>AtKE8IycOzo</t>
   </si>
   <si>
-    <t>新湖李弘仁老師專題報導杏壇芬芳奬得主～身心奉獻為教育</t>
+    <t>新湖李弘仁老師專題報導杏壇芬芳奬得主</t>
   </si>
 </sst>
 </file>
@@ -679,8 +679,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F45" sqref="A1:F45"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/other/xinhu/yotubeVideos.xlsx
+++ b/other/xinhu/yotubeVideos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAC0839-2BE6-40E1-96AB-37D5CF5BD533}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9589A9-9249-4617-A4A5-F8AE680205ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="104">
   <si>
     <t>title</t>
   </si>
@@ -320,6 +320,18 @@
   </si>
   <si>
     <t>新湖李弘仁老師專題報導杏壇芬芳奬得主</t>
+  </si>
+  <si>
+    <t>20180926教師節活動</t>
+  </si>
+  <si>
+    <t>hz_HeE5ewaM</t>
+  </si>
+  <si>
+    <t>kgmGFwRyzXI</t>
+  </si>
+  <si>
+    <t>1070928新湖國小教師節敬師活動</t>
   </si>
 </sst>
 </file>
@@ -399,8 +411,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B68AFC7B-6266-4D14-8E60-C11E06AA594C}" name="Table1" displayName="Table1" ref="A1:F45" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F45" xr:uid="{2166C70C-1411-4E16-A820-5D604ED0A907}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B68AFC7B-6266-4D14-8E60-C11E06AA594C}" name="Table1" displayName="Table1" ref="A1:F47" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F47" xr:uid="{2166C70C-1411-4E16-A820-5D604ED0A907}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{E7C8E38C-0C4D-4B0E-B31D-F84273132EE5}" name="title" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{073D97DF-3E36-42E2-89AE-63240BDD5AAE}" name="ID" dataDxfId="4"/>
@@ -677,10 +689,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,6 +1604,46 @@
         <v>14</v>
       </c>
     </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="2">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2">
+        <v>25</v>
+      </c>
+      <c r="E46" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" s="2">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2">
+        <v>28</v>
+      </c>
+      <c r="E47" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/other/xinhu/yotubeVideos.xlsx
+++ b/other/xinhu/yotubeVideos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9589A9-9249-4617-A4A5-F8AE680205ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B915FDF-7065-4F67-9B21-8C35E4D8DEB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="106">
   <si>
     <t>title</t>
   </si>
@@ -332,6 +332,12 @@
   </si>
   <si>
     <t>1070928新湖國小教師節敬師活動</t>
+  </si>
+  <si>
+    <t>20180925節水體驗活動</t>
+  </si>
+  <si>
+    <t>WPiC8RhE1PA</t>
   </si>
 </sst>
 </file>
@@ -411,8 +417,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B68AFC7B-6266-4D14-8E60-C11E06AA594C}" name="Table1" displayName="Table1" ref="A1:F47" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F47" xr:uid="{2166C70C-1411-4E16-A820-5D604ED0A907}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B68AFC7B-6266-4D14-8E60-C11E06AA594C}" name="Table1" displayName="Table1" ref="A1:F48" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F48" xr:uid="{2166C70C-1411-4E16-A820-5D604ED0A907}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{E7C8E38C-0C4D-4B0E-B31D-F84273132EE5}" name="title" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{073D97DF-3E36-42E2-89AE-63240BDD5AAE}" name="ID" dataDxfId="4"/>
@@ -689,10 +695,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1644,6 +1650,26 @@
         <v>19</v>
       </c>
     </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="2">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2">
+        <v>25</v>
+      </c>
+      <c r="E48" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/other/xinhu/yotubeVideos.xlsx
+++ b/other/xinhu/yotubeVideos.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B915FDF-7065-4F67-9B21-8C35E4D8DEB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E25B459-A215-40E3-881A-25118F03BBF2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="108">
   <si>
     <t>title</t>
   </si>
@@ -338,6 +338,12 @@
   </si>
   <si>
     <t>WPiC8RhE1PA</t>
+  </si>
+  <si>
+    <t>新湖國小107學年度臺北市學生音樂比賽同聲合唱</t>
+  </si>
+  <si>
+    <t>C233doNX5Zw</t>
   </si>
 </sst>
 </file>
@@ -417,8 +423,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B68AFC7B-6266-4D14-8E60-C11E06AA594C}" name="Table1" displayName="Table1" ref="A1:F48" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F48" xr:uid="{2166C70C-1411-4E16-A820-5D604ED0A907}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B68AFC7B-6266-4D14-8E60-C11E06AA594C}" name="Table1" displayName="Table1" ref="A1:F49" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F49" xr:uid="{2166C70C-1411-4E16-A820-5D604ED0A907}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{E7C8E38C-0C4D-4B0E-B31D-F84273132EE5}" name="title" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{073D97DF-3E36-42E2-89AE-63240BDD5AAE}" name="ID" dataDxfId="4"/>
@@ -695,10 +701,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1670,6 +1676,26 @@
         <v>19</v>
       </c>
     </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="2">
+        <v>10</v>
+      </c>
+      <c r="D49" s="2">
+        <v>17</v>
+      </c>
+      <c r="E49" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/other/xinhu/yotubeVideos.xlsx
+++ b/other/xinhu/yotubeVideos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E25B459-A215-40E3-881A-25118F03BBF2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BE5006-D368-4912-A00B-0C44E05D905B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="110">
   <si>
     <t>title</t>
   </si>
@@ -344,6 +344,12 @@
   </si>
   <si>
     <t>C233doNX5Zw</t>
+  </si>
+  <si>
+    <t>INLRKOhMmBA</t>
+  </si>
+  <si>
+    <t>喜閱森林開幕活動</t>
   </si>
 </sst>
 </file>
@@ -423,8 +429,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B68AFC7B-6266-4D14-8E60-C11E06AA594C}" name="Table1" displayName="Table1" ref="A1:F49" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F49" xr:uid="{2166C70C-1411-4E16-A820-5D604ED0A907}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B68AFC7B-6266-4D14-8E60-C11E06AA594C}" name="Table1" displayName="Table1" ref="A1:F50" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F50" xr:uid="{2166C70C-1411-4E16-A820-5D604ED0A907}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{E7C8E38C-0C4D-4B0E-B31D-F84273132EE5}" name="title" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{073D97DF-3E36-42E2-89AE-63240BDD5AAE}" name="ID" dataDxfId="4"/>
@@ -701,10 +707,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1696,6 +1702,26 @@
         <v>6</v>
       </c>
     </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="2">
+        <v>10</v>
+      </c>
+      <c r="D50" s="2">
+        <v>23</v>
+      </c>
+      <c r="E50" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/other/xinhu/yotubeVideos.xlsx
+++ b/other/xinhu/yotubeVideos.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BE5006-D368-4912-A00B-0C44E05D905B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E27C649-E87A-4038-B958-C414D1018A27}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="112">
   <si>
     <t>title</t>
   </si>
@@ -350,6 +350,12 @@
   </si>
   <si>
     <t>喜閱森林開幕活動</t>
+  </si>
+  <si>
+    <t>z5OCp5h6i0U</t>
+  </si>
+  <si>
+    <t>107新湖國小管樂比賽</t>
   </si>
 </sst>
 </file>
@@ -429,8 +435,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B68AFC7B-6266-4D14-8E60-C11E06AA594C}" name="Table1" displayName="Table1" ref="A1:F50" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F50" xr:uid="{2166C70C-1411-4E16-A820-5D604ED0A907}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B68AFC7B-6266-4D14-8E60-C11E06AA594C}" name="Table1" displayName="Table1" ref="A1:F51" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F51" xr:uid="{2166C70C-1411-4E16-A820-5D604ED0A907}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{E7C8E38C-0C4D-4B0E-B31D-F84273132EE5}" name="title" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{073D97DF-3E36-42E2-89AE-63240BDD5AAE}" name="ID" dataDxfId="4"/>
@@ -707,10 +713,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1722,6 +1728,26 @@
         <v>19</v>
       </c>
     </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="2">
+        <v>10</v>
+      </c>
+      <c r="D51" s="2">
+        <v>31</v>
+      </c>
+      <c r="E51" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/other/xinhu/yotubeVideos.xlsx
+++ b/other/xinhu/yotubeVideos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E27C649-E87A-4038-B958-C414D1018A27}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE9C40E-A193-4554-8842-318F2A7A3CA3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="114">
   <si>
     <t>title</t>
   </si>
@@ -356,6 +356,12 @@
   </si>
   <si>
     <t>107新湖國小管樂比賽</t>
+  </si>
+  <si>
+    <t>C6vuXjcRyIU</t>
+  </si>
+  <si>
+    <t>視力保健闖關活動</t>
   </si>
 </sst>
 </file>
@@ -435,8 +441,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B68AFC7B-6266-4D14-8E60-C11E06AA594C}" name="Table1" displayName="Table1" ref="A1:F51" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F51" xr:uid="{2166C70C-1411-4E16-A820-5D604ED0A907}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B68AFC7B-6266-4D14-8E60-C11E06AA594C}" name="Table1" displayName="Table1" ref="A1:F52" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F52" xr:uid="{2166C70C-1411-4E16-A820-5D604ED0A907}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{E7C8E38C-0C4D-4B0E-B31D-F84273132EE5}" name="title" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{073D97DF-3E36-42E2-89AE-63240BDD5AAE}" name="ID" dataDxfId="4"/>
@@ -713,10 +719,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1748,6 +1754,26 @@
         <v>6</v>
       </c>
     </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="2">
+        <v>11</v>
+      </c>
+      <c r="D52" s="2">
+        <v>13</v>
+      </c>
+      <c r="E52" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/other/xinhu/yotubeVideos.xlsx
+++ b/other/xinhu/yotubeVideos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE9C40E-A193-4554-8842-318F2A7A3CA3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F84F1AC-8855-4B8E-9207-2F0B75F125FE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="118">
   <si>
     <t>title</t>
   </si>
@@ -362,6 +362,18 @@
   </si>
   <si>
     <t>視力保健闖關活動</t>
+  </si>
+  <si>
+    <t>G8qnj3p6ITw</t>
+  </si>
+  <si>
+    <t>體育表演會預告片</t>
+  </si>
+  <si>
+    <t>20181115打家來打流感疫苗</t>
+  </si>
+  <si>
+    <t>vFAZN_rM9Mg</t>
   </si>
 </sst>
 </file>
@@ -441,8 +453,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B68AFC7B-6266-4D14-8E60-C11E06AA594C}" name="Table1" displayName="Table1" ref="A1:F52" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F52" xr:uid="{2166C70C-1411-4E16-A820-5D604ED0A907}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B68AFC7B-6266-4D14-8E60-C11E06AA594C}" name="Table1" displayName="Table1" ref="A1:F54" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F54" xr:uid="{2166C70C-1411-4E16-A820-5D604ED0A907}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{E7C8E38C-0C4D-4B0E-B31D-F84273132EE5}" name="title" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{073D97DF-3E36-42E2-89AE-63240BDD5AAE}" name="ID" dataDxfId="4"/>
@@ -719,10 +731,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1774,6 +1786,46 @@
         <v>19</v>
       </c>
     </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="2">
+        <v>11</v>
+      </c>
+      <c r="D53" s="2">
+        <v>16</v>
+      </c>
+      <c r="E53" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="2">
+        <v>11</v>
+      </c>
+      <c r="D54" s="2">
+        <v>15</v>
+      </c>
+      <c r="E54" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
